--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\projeto-metrologia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="96">
   <si>
     <t>Backlog do Projeto</t>
   </si>
@@ -80,99 +81,48 @@
     <t>RP1</t>
   </si>
   <si>
-    <t>Deve ser feito um documento com a justificativa do projeto</t>
-  </si>
-  <si>
     <t>Essencial</t>
   </si>
   <si>
     <t>RP2</t>
   </si>
   <si>
-    <t>Deve ser feito um documento com o contexto de negócios</t>
-  </si>
-  <si>
     <t>RP3</t>
   </si>
   <si>
-    <t>Deve ser criado um repositório do Github para o projeto</t>
-  </si>
-  <si>
     <t>RP4</t>
   </si>
   <si>
-    <t>Deve ser feito um desenho da solução</t>
-  </si>
-  <si>
     <t>RP5</t>
   </si>
   <si>
-    <t>Deve ser construido uma página com um simulador financeiro para avaliação de lucros gerados pelo projeto</t>
-  </si>
-  <si>
     <t>RP6</t>
   </si>
   <si>
-    <t>Deve ser criado um site institucional do projeto</t>
-  </si>
-  <si>
     <t>RP7</t>
   </si>
   <si>
-    <t>Deve ser criado uma Planilha de Riscos do Projeto</t>
-  </si>
-  <si>
     <t>RP8</t>
   </si>
   <si>
-    <t>Deve ser feito o Banco de Dados no Azure</t>
-  </si>
-  <si>
     <t>RP9</t>
   </si>
   <si>
-    <t>Deve ter o HLD e LLD do projeto</t>
-  </si>
-  <si>
     <t>RP10</t>
   </si>
   <si>
-    <t>Deve ter uma Ferramenta de Gestão de Projeto Funcionando</t>
-  </si>
-  <si>
     <t>RP11</t>
   </si>
   <si>
-    <t>O arduino deve ter coneção com o Banco de Dados</t>
-  </si>
-  <si>
     <t>RP12</t>
   </si>
   <si>
-    <t>Deve ter um Diagrama de Arquitetura Local (Arduíno)</t>
-  </si>
-  <si>
-    <t>RP13</t>
-  </si>
-  <si>
-    <t>Deve ter a Especificação do analytics</t>
-  </si>
-  <si>
     <t>Requisitos do site</t>
   </si>
   <si>
     <t>RS1</t>
   </si>
   <si>
-    <t>O site deve permitir o login do usuário</t>
-  </si>
-  <si>
-    <t>RS2</t>
-  </si>
-  <si>
-    <t>O site deverá conter uma tela sobre a nossa empresa</t>
-  </si>
-  <si>
     <t>RS3</t>
   </si>
   <si>
@@ -236,58 +186,139 @@
     <t>O site conterá gráficos, métricas e estatisticas a partir dos dados coletados</t>
   </si>
   <si>
-    <t>Funcionamento do sistema</t>
-  </si>
-  <si>
-    <t>FS1</t>
-  </si>
-  <si>
-    <t>Os sensores deverão ficar posicionados em uma borda de forma que fique difícil a sua localização por outros usuário</t>
-  </si>
-  <si>
-    <t>FS2</t>
-  </si>
-  <si>
-    <t>Devem ser posicionadas caixas de som nas prateleiras do supermercado</t>
-  </si>
-  <si>
-    <t>FS3</t>
-  </si>
-  <si>
-    <t>Ao passar a mão em um sensor deverá ser reproduzido um audio com os dados do produto naquela prateleira</t>
-  </si>
-  <si>
-    <t>FS4</t>
-  </si>
-  <si>
-    <t>O áudio deve conter nome, marca e preço do produto</t>
-  </si>
-  <si>
     <t>Requisitos do banco de dados</t>
   </si>
   <si>
     <t>RB1</t>
   </si>
   <si>
-    <t>O banco de dados deverá armazenar os dados dos produtos em estoque no estabelecimento</t>
-  </si>
-  <si>
     <t>RB2</t>
   </si>
   <si>
-    <t>O banco de dados deve armazenar a Identificação, nome, categoria e preço do produto</t>
-  </si>
-  <si>
     <t>RB3</t>
   </si>
   <si>
-    <t>O banco de dados deve armazenar informações sobre o estabelecimento</t>
-  </si>
-  <si>
-    <t>RB4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O banco de dados deve armazenar um registro quando o usuário </t>
+    <t>Fazer integração do banco no Azure com o site</t>
+  </si>
+  <si>
+    <t>Fazer um documento com a justificativa do projeto</t>
+  </si>
+  <si>
+    <t>Fazer um desenho da solução</t>
+  </si>
+  <si>
+    <t>Fazer um simulador financeiro</t>
+  </si>
+  <si>
+    <t>Fazer página institucional da empresa</t>
+  </si>
+  <si>
+    <t>Fazer integração do Arduíno com o banco de dados no Azure</t>
+  </si>
+  <si>
+    <t>Fazer ser criado um site institucional do projeto</t>
+  </si>
+  <si>
+    <t>Fazer ser criado uma Planilha de Riscos do Projeto</t>
+  </si>
+  <si>
+    <t>Fazer um documento com o contexto de negócios</t>
+  </si>
+  <si>
+    <t>Fazer um repositório do Github para o projeto</t>
+  </si>
+  <si>
+    <t>O banco de dados configurado no Azure com tabelas sobre informações de clientes, produtos e plantas.</t>
+  </si>
+  <si>
+    <t>Fazer ser feito o Banco de Dados no Azure</t>
+  </si>
+  <si>
+    <t>Fazer o HLD e LLD do projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ter uma Ferramenta de Gestão de Projeto </t>
+  </si>
+  <si>
+    <t>Fazer um Diagrama de Arquitetura Local (Arduíno)</t>
+  </si>
+  <si>
+    <t>Fazer uma Especificação do analytics</t>
+  </si>
+  <si>
+    <t>Criar seção para login do usuário no site</t>
+  </si>
+  <si>
+    <t>Simulação do código via Tinkercad</t>
+  </si>
+  <si>
+    <t>Código estruturado na IDE do Arduino</t>
+  </si>
+  <si>
+    <t>Armazenar os dados capturados do Arduino no banco de dados</t>
+  </si>
+  <si>
+    <t>Construir código no arduino.</t>
+  </si>
+  <si>
+    <t>Desejável</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vaso ter conexão com wi-fi </t>
+  </si>
+  <si>
+    <t>Criar uma tela institucional deverá ter história da empresa</t>
+  </si>
+  <si>
+    <t>Criar uma tela institucional deverá conter a missão da empresa</t>
+  </si>
+  <si>
+    <t>Criar uma tela institucional deverá conter a visão da empresa</t>
+  </si>
+  <si>
+    <t>Criar uma tela institucional deverá conter os valores da empresa</t>
+  </si>
+  <si>
+    <t>Disponibilizar o contato da empresa no site</t>
+  </si>
+  <si>
+    <t>Fazer uma tela de contato onde possua email, telefone e redes sociais da empresa</t>
+  </si>
+  <si>
+    <t>Fazer a conexão entre seção de login com os dados coletados pelos sensores (Free)</t>
+  </si>
+  <si>
+    <t>Fazer um tela contendo grid com as informações em tempo real dos sensores</t>
+  </si>
+  <si>
+    <t>Fazer gráficos, métricas e estatisticas a partir dos dados coletados</t>
+  </si>
+  <si>
+    <t>Configurar o banco de dados no Azure com tabelas sobre informações de clientes, produtos e plantas.</t>
+  </si>
+  <si>
+    <t>Outros</t>
+  </si>
+  <si>
+    <t>Fazer as recomendações feitas pela empresa de acordo com as particularidades de cada planta (Premium)</t>
+  </si>
+  <si>
+    <t>RS13</t>
+  </si>
+  <si>
+    <t>RS14</t>
+  </si>
+  <si>
+    <t>OU1</t>
+  </si>
+  <si>
+    <t>1ªSprint</t>
+  </si>
+  <si>
+    <t>2ªSprint</t>
+  </si>
+  <si>
+    <t>Possibilitar que os usuários possam consultar os dados armazenados pelo sensor</t>
   </si>
 </sst>
 </file>
@@ -320,12 +351,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF444444"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="24"/>
       <color theme="1"/>
@@ -338,6 +363,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -347,7 +378,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -493,19 +524,6 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -547,6 +565,137 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -556,10 +705,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -575,13 +723,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -596,61 +744,114 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -933,668 +1134,721 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E15:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="10" customWidth="1"/>
     <col min="2" max="2" width="106.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="28" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14" style="18" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="18" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
         <v>1192084</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
         <v>1192099</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
         <v>1192091</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
         <v>1192027</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
         <v>1192079</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
         <v>1192107</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="19">
+        <v>5</v>
+      </c>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="31"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="19">
+        <v>5</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="19">
+        <v>3</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="31"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="B18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="19">
+        <v>3</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="19">
+        <v>8</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="31"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="53">
+        <v>21</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="19">
+        <v>21</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="31"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="B22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="19">
+        <v>21</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="19">
+        <v>21</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="31"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="B24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="19">
+        <v>3</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="19">
+        <v>13</v>
+      </c>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="31"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="B26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="19">
+        <v>21</v>
+      </c>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="32"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="31"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="B29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="19">
+        <v>13</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="31"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="B30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="D30" s="19">
+        <v>5</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="31"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="19">
+        <v>5</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="31"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="19">
+        <v>5</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="31"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="19">
+        <v>5</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="31"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="19">
+        <v>3</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="31"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="31"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
+      <c r="B35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="19">
+        <v>3</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="19">
+        <v>21</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="19">
+        <v>21</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="19">
+        <v>13</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="19">
+        <v>8</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="19">
+        <v>21</v>
+      </c>
+      <c r="E40" s="13"/>
+      <c r="F40" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="19">
+        <v>21</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="13"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="20"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="13" t="s">
+      <c r="B43" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D43" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E43" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F43" s="37" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="31"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="31"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="31"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="31"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="19">
+        <v>8</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="31"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="B45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="19">
+        <v>13</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="31"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="31"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="31"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="31"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="31"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="31"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="30"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="31"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="31"/>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
+      <c r="B46" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="39">
+        <v>8</v>
+      </c>
+      <c r="E46" s="41"/>
+      <c r="F46" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="13" t="s">
+      <c r="B47" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D47" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E47" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="29" t="s">
+      <c r="F47" s="46" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="30"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="31"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="31"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="31"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B47" s="1" t="s">
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="31"/>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="14"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="31"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="31"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="30"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="31"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="30"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="31"/>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="32"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="33"/>
+      <c r="D48" s="48">
+        <v>5</v>
+      </c>
+      <c r="E48" s="52"/>
+      <c r="F48" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1603,4 +1857,178 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="94.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>